--- a/ig/minimal-r4/branch/main/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/branch/main/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T08:54:13+00:00</t>
+    <t>2022-05-26T18:29:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/minimal-r4/branch/main/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/branch/main/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T18:29:43+00:00</t>
+    <t>2022-06-06T17:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/minimal-r4/branch/main/StructureDefinition-fish-patient.xlsx
+++ b/ig/minimal-r4/branch/main/StructureDefinition-fish-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T17:52:21+00:00</t>
+    <t>2022-06-07T00:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
